--- a/Input/GIG/rateSheet.xlsx
+++ b/Input/GIG/rateSheet.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="rates" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">rates!$A$1:$J$11</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="32">
   <si>
     <t xml:space="preserve">planName</t>
   </si>
@@ -55,10 +58,10 @@
     <t xml:space="preserve">Smart Health - Global</t>
   </si>
   <si>
-    <t xml:space="preserve">AXA Gulf (In-house) - (IP) AXA 1 _ (OP) AXA 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worldwide excluding USA</t>
+    <t xml:space="preserve">AXA Gulf - (IP) AXA 1 _ (OP) AXA 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worldwide excluding USA *Emergency Outside Area of Cover (Worldwide) - AED 750,000</t>
   </si>
   <si>
     <t xml:space="preserve">10%</t>
@@ -79,34 +82,39 @@
     <t xml:space="preserve">Smart Health - Gold</t>
   </si>
   <si>
-    <t xml:space="preserve">AXA Gulf (In-house) - (IP) AXA 3 _ (OP) AXA 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UAE + Home Country</t>
+    <t xml:space="preserve">AXA Gulf - (IP) AXA 3 _ (OP) AXA 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UAE plus any one of India, Pakistan, Sri Lanka, Bangladesh, the Philippines, Nepal &amp; Bhutan being your home country
+*Emergency Outside Area of Cover (Worldwide)- AED 50,000</t>
   </si>
   <si>
     <t xml:space="preserve">Smart Health - Regional</t>
   </si>
   <si>
-    <t xml:space="preserve">AXA Gulf (In-house) - (IP) AXA 2 _ (OP) AXA 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regional</t>
+    <t xml:space="preserve">AXA Gulf - (IP) AXA 2 _ (OP) AXA 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G.C.C, Jordan, plus Iran, Lebanon, Syria, Egypt, Tunisia, Morocco, Algeria, India, Pakistan, Sri Lanka, Bangladesh, Korea, the Philippines, Indonesia, Nepal &amp; Bhutan
+*Emergency Outside Area of Cover (Worldwide)- AED 250,000</t>
   </si>
   <si>
     <t xml:space="preserve">Smart Health - Silver</t>
   </si>
   <si>
-    <t xml:space="preserve">AXA Gulf (In-house) - (IP) AXA 4 _ (OP) AXA 5</t>
+    <t xml:space="preserve">AXA Gulf - (IP) AXA 4 _ (OP) AXA 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UAE plus any one of India, Pakistan, Sri Lanka, Bangladesh, the Philippines, Nepal &amp; Bhutan being your home country</t>
   </si>
   <si>
     <t xml:space="preserve">Smart Health - Bronze</t>
   </si>
   <si>
-    <t xml:space="preserve">AXA Gulf (In-house) - (IP) AXA 5 _ (OP) AXA 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UAE Only</t>
+    <t xml:space="preserve">AXA Gulf - (IP) AXA 5 _ (OP) AXA 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UAE</t>
   </si>
   <si>
     <t xml:space="preserve">20%</t>
@@ -122,7 +130,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -144,6 +152,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -188,13 +202,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -209,54 +239,58 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="48.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -264,10 +298,10 @@
       <c r="A2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="0" t="n">
@@ -279,7 +313,7 @@
       <c r="F2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="0" t="s">
@@ -292,14 +326,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="0" t="n">
@@ -311,7 +345,7 @@
       <c r="F3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="0" t="s">
@@ -324,14 +358,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="0" t="n">
@@ -343,7 +377,7 @@
       <c r="F4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="0" t="s">
@@ -356,15 +390,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>20</v>
+      <c r="C5" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0</v>
@@ -375,7 +409,7 @@
       <c r="F5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="0" t="s">
@@ -390,13 +424,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="0" t="s">
         <v>27</v>
       </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="C6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>0</v>
@@ -405,9 +439,9 @@
         <v>150</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="0" t="s">
@@ -424,10 +458,10 @@
       <c r="A7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="0" t="n">
@@ -439,8 +473,8 @@
       <c r="F7" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>30</v>
+      <c r="G7" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>15</v>
@@ -452,14 +486,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="0" t="n">
@@ -471,8 +505,8 @@
       <c r="F8" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>30</v>
+      <c r="G8" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>15</v>
@@ -484,14 +518,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="0" t="n">
@@ -503,8 +537,8 @@
       <c r="F9" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>30</v>
+      <c r="G9" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>15</v>
@@ -516,15 +550,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>20</v>
+      <c r="C10" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>0</v>
@@ -535,8 +569,8 @@
       <c r="F10" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>30</v>
+      <c r="G10" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>15</v>
@@ -550,13 +584,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="0" t="s">
         <v>27</v>
       </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="C11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>0</v>
@@ -565,11 +599,11 @@
         <v>150</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="G11" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="H11" s="0" t="s">
         <v>15</v>
       </c>
@@ -580,8 +614,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <autoFilter ref="A1:J11"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -589,5 +623,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Input/GIG/rateSheet.xlsx
+++ b/Input/GIG/rateSheet.xlsx
@@ -85,8 +85,7 @@
     <t xml:space="preserve">AXA Gulf - (IP) AXA 3 _ (OP) AXA 4</t>
   </si>
   <si>
-    <t xml:space="preserve">UAE plus any one of India, Pakistan, Sri Lanka, Bangladesh, the Philippines, Nepal &amp; Bhutan being your home country
-*Emergency Outside Area of Cover (Worldwide)- AED 50,000</t>
+    <t xml:space="preserve">UAE plus any one of India, Pakistan, Sri Lanka, Bangladesh, the Philippines, Nepal &amp; Bhutan being your home country *Emergency Outside Area of Cover (Worldwide)- AED 50,000</t>
   </si>
   <si>
     <t xml:space="preserve">Smart Health - Regional</t>
@@ -130,7 +129,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -152,6 +151,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -202,7 +208,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -221,6 +227,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -251,7 +261,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -326,8 +336,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="35.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -365,7 +375,7 @@
       <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="0" t="n">
@@ -397,7 +407,7 @@
       <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="0" t="n">
@@ -486,8 +496,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" customFormat="false" ht="35.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -525,7 +535,7 @@
       <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="0" t="n">
@@ -557,7 +567,7 @@
       <c r="B10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="0" t="n">
